--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test3/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>344.458</v>
+        <v>332.301</v>
       </c>
       <c r="F2" t="n">
-        <v>0.501</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.059</v>
+        <v>0.352</v>
       </c>
       <c r="H2" t="n">
-        <v>18.769</v>
+        <v>17.85</v>
       </c>
       <c r="I2" t="n">
-        <v>19.51</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>362.248</v>
+        <v>338.187</v>
       </c>
       <c r="F3" t="n">
-        <v>0.499</v>
+        <v>0.581</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.016</v>
+        <v>0.434</v>
       </c>
       <c r="H3" t="n">
-        <v>18.805</v>
+        <v>17.506</v>
       </c>
       <c r="I3" t="n">
-        <v>19.966</v>
+        <v>16.446</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>307.719</v>
+        <v>283.104</v>
       </c>
       <c r="F4" t="n">
-        <v>0.597</v>
+        <v>0.631</v>
       </c>
       <c r="G4" t="n">
-        <v>0.213</v>
+        <v>0.313</v>
       </c>
       <c r="H4" t="n">
-        <v>16.893</v>
+        <v>16.321</v>
       </c>
       <c r="I4" t="n">
-        <v>17.958</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>295.688</v>
+        <v>265.973</v>
       </c>
       <c r="F5" t="n">
-        <v>0.652</v>
+        <v>0.678</v>
       </c>
       <c r="G5" t="n">
-        <v>0.132</v>
+        <v>-0.024</v>
       </c>
       <c r="H5" t="n">
-        <v>15.707</v>
+        <v>15.309</v>
       </c>
       <c r="I5" t="n">
-        <v>18.806</v>
+        <v>17.396</v>
       </c>
     </row>
     <row r="6">
@@ -621,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>347.611</v>
+        <v>310.222</v>
       </c>
       <c r="F6" t="n">
-        <v>0.633</v>
+        <v>0.639</v>
       </c>
       <c r="G6" t="n">
-        <v>0.227</v>
+        <v>0.426</v>
       </c>
       <c r="H6" t="n">
-        <v>16.125</v>
+        <v>16.204</v>
       </c>
       <c r="I6" t="n">
-        <v>17.878</v>
+        <v>16.222</v>
       </c>
     </row>
     <row r="7">
@@ -654,7 +654,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>214.321</v>
+        <v>262.336</v>
       </c>
       <c r="F7" t="n">
-        <v>0.723</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.16</v>
+        <v>-0.039</v>
       </c>
       <c r="H7" t="n">
-        <v>13.917</v>
+        <v>15.049</v>
       </c>
       <c r="I7" t="n">
-        <v>17.941</v>
+        <v>17.347</v>
       </c>
     </row>
     <row r="8">
@@ -687,7 +687,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -697,19 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>346.731</v>
+        <v>300.163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.542</v>
+        <v>0.63</v>
       </c>
       <c r="G8" t="n">
-        <v>0.194</v>
+        <v>0.324</v>
       </c>
       <c r="H8" t="n">
-        <v>17.953</v>
+        <v>16.404</v>
       </c>
       <c r="I8" t="n">
-        <v>18.899</v>
+        <v>15.849</v>
       </c>
     </row>
     <row r="9">
@@ -720,7 +720,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ranking_test2</t>
+          <t>ranking_test3</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -730,19 +730,19 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>164.777</v>
+        <v>200.228</v>
       </c>
       <c r="F9" t="n">
-        <v>0.78</v>
+        <v>0.735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.228</v>
+        <v>-0.289</v>
       </c>
       <c r="H9" t="n">
-        <v>12.367</v>
+        <v>13.799</v>
       </c>
       <c r="I9" t="n">
-        <v>16.407</v>
+        <v>17.377</v>
       </c>
     </row>
     <row r="10">
@@ -757,25 +757,25 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>372.187</v>
+        <v>346.994</v>
       </c>
       <c r="F10" t="n">
-        <v>0.522</v>
+        <v>0.542</v>
       </c>
       <c r="G10" t="n">
-        <v>0.306</v>
+        <v>0.375</v>
       </c>
       <c r="H10" t="n">
-        <v>18.578</v>
+        <v>18.194</v>
       </c>
       <c r="I10" t="n">
-        <v>16.746</v>
+        <v>16.895</v>
       </c>
     </row>
     <row r="11">
@@ -790,223 +790,25 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0.001</v>
       </c>
       <c r="E11" t="n">
-        <v>347.016</v>
+        <v>194.943</v>
       </c>
       <c r="F11" t="n">
-        <v>0.546</v>
+        <v>0.745</v>
       </c>
       <c r="G11" t="n">
-        <v>0.34</v>
+        <v>-0.038</v>
       </c>
       <c r="H11" t="n">
-        <v>18.206</v>
+        <v>13.508</v>
       </c>
       <c r="I11" t="n">
-        <v>17.283</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>3</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E12" t="n">
-        <v>306.135</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.609</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.362</v>
-      </c>
-      <c r="H12" t="n">
-        <v>16.896</v>
-      </c>
-      <c r="I12" t="n">
-        <v>15.582</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E13" t="n">
-        <v>301.889</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.588</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="H13" t="n">
-        <v>17.338</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16.124</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E14" t="n">
-        <v>314.229</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.623</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.434</v>
-      </c>
-      <c r="H14" t="n">
-        <v>16.525</v>
-      </c>
-      <c r="I14" t="n">
-        <v>15.553</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>4</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>231.212</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.698</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14.824</v>
-      </c>
-      <c r="I15" t="n">
-        <v>15.634</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>5</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E16" t="n">
-        <v>363.949</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.343</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18.294</v>
-      </c>
-      <c r="I16" t="n">
-        <v>16.617</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>additive</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ranking_test3</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E17" t="n">
-        <v>274.64</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.643</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.157</v>
-      </c>
-      <c r="H17" t="n">
-        <v>16.102</v>
-      </c>
-      <c r="I17" t="n">
-        <v>16.599</v>
+        <v>15.909</v>
       </c>
     </row>
   </sheetData>
